--- a/output_data/charts/capacity-PrairieTownshipFranklin-0700000US390496457099999.xlsx
+++ b/output_data/charts/capacity-PrairieTownshipFranklin-0700000US390496457099999.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -516,7 +516,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -856,13 +856,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12200</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -874,34 +874,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14500</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3800</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25100</c:v>
+                  <c:v>25.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>123680</c:v>
+                  <c:v>123.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>148640</c:v>
+                  <c:v>148.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>232820</c:v>
+                  <c:v>232.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>163770</c:v>
+                  <c:v>163.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>12200</v>
+        <v>12.2</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>14500</v>
+        <v>14.5</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>3800</v>
+        <v>3.8</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>25100</v>
+        <v>25.1</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>123680</v>
+        <v>123.68</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>148640</v>
+        <v>148.64</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>232820</v>
+        <v>232.82</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>163770</v>
+        <v>163.77</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-PrairieTownshipFranklin-0700000US390496457099999.xlsx
+++ b/output_data/charts/capacity-PrairieTownshipFranklin-0700000US390496457099999.xlsx
@@ -895,13 +895,13 @@
                   <c:v>123.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>148.64</c:v>
+                  <c:v>144.58</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>232.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>163.77</c:v>
+                  <c:v>215.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>148.64</v>
+        <v>144.58</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>163.77</v>
+        <v>215.87</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
